--- a/TestData/A.xlsx
+++ b/TestData/A.xlsx
@@ -974,10 +974,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1057,85 +1057,71 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>533</v>
       </c>
       <c r="C6">
-        <v>122</v>
+        <v>963</v>
       </c>
       <c r="D6">
-        <v>321</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>533</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>963</v>
       </c>
       <c r="D7">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C8">
-        <v>963</v>
+        <v>122</v>
       </c>
       <c r="D8">
-        <v>122</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="D9">
-        <v>533</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="C10">
-        <v>222</v>
+        <v>963</v>
       </c>
       <c r="D10">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>222</v>
-      </c>
-      <c r="C11">
-        <v>963</v>
-      </c>
-      <c r="D11">
         <v>111</v>
       </c>
     </row>

--- a/TestData/A.xlsx
+++ b/TestData/A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13380"/>
+    <workbookView windowWidth="14508" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -977,7 +977,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1088,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>111</v>
+        <v>11155</v>
       </c>
       <c r="C8">
         <v>122</v>
